--- a/autumn/xls/programs_philippines.xlsx
+++ b/autumn/xls/programs_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="375" windowWidth="20370" windowHeight="7470" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="375" windowWidth="20370" windowHeight="7470" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="country_constants" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2222,8 +2221,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,11 +2404,11 @@
   </sheetPr>
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE7" sqref="BE7"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3548,7 +3547,7 @@
       </c>
       <c r="D31" s="47" t="str">
         <f>D30</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/programs_philippines.xlsx
+++ b/autumn/xls/programs_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="375" windowWidth="20370" windowHeight="7470" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="375" windowWidth="20370" windowHeight="7470" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="country_constants" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>scenario_5</t>
+  </si>
+  <si>
+    <t>scenario_6</t>
+  </si>
+  <si>
+    <t>scenario_7</t>
+  </si>
+  <si>
+    <t>scenario_8</t>
   </si>
 </sst>
 </file>
@@ -340,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,12 +406,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,7 +1198,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1212,22 +1215,19 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1242,12 +1242,12 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2221,173 +2221,173 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="48.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="34">
         <v>22</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="34">
         <v>26</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="34">
         <v>4</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>1945</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>1955</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="34">
         <v>2050</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>2</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="38">
-        <v>0.2</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="48">
         <v>1850</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+    <row r="11" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="48">
         <v>2016</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+    <row r="12" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="48">
         <v>2020</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="46">
         <v>10000000</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="46">
         <v>3</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="45" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2402,18 +2402,18 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BF31"/>
+  <dimension ref="A1:BI31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="BI17" sqref="BI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" style="1" customWidth="1"/>
@@ -2439,11 +2439,11 @@
     <col min="52" max="52" width="7.85546875" style="1" customWidth="1"/>
     <col min="53" max="53" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.140625" style="1"/>
+    <col min="55" max="59" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -2618,9 +2618,18 @@
       <c r="BF1" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="BG1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2641,51 +2650,57 @@
       <c r="M2" s="7">
         <v>40</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-    </row>
-    <row r="3" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BH2" s="7">
+        <v>100</v>
+      </c>
+      <c r="BI2" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="44" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="7">
@@ -2704,15 +2719,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
@@ -2726,52 +2741,52 @@
       <c r="T4" s="9">
         <v>30</v>
       </c>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="29"/>
-      <c r="AR4" s="29"/>
-      <c r="AS4" s="29"/>
-      <c r="AT4" s="29"/>
-      <c r="AU4" s="29"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="29"/>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="29">
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26">
         <v>75</v>
       </c>
-      <c r="BB4" s="9">
-        <v>80</v>
-      </c>
-      <c r="BC4" s="9">
-        <v>83</v>
-      </c>
-      <c r="BF4" s="9">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="BD4" s="9">
+        <v>85</v>
+      </c>
+      <c r="BE4" s="9">
+        <v>90</v>
+      </c>
+      <c r="BI4" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="9">
@@ -2781,8 +2796,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2809,16 +2824,22 @@
       <c r="AZ6" s="11">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="BG6" s="11">
+        <v>90</v>
+      </c>
+      <c r="BI6" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="44" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="11">
@@ -2834,8 +2855,8 @@
         <v>4049504</v>
       </c>
     </row>
-    <row r="8" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -2856,30 +2877,30 @@
       <c r="AB8" s="13">
         <v>40</v>
       </c>
-      <c r="BD8" s="13">
-        <v>20</v>
-      </c>
       <c r="BF8" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="BI8" s="13">
         <v>20</v>
       </c>
-      <c r="B9" s="12" t="s">
+    </row>
+    <row r="9" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="44" t="s">
         <v>23</v>
       </c>
       <c r="X9" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:58" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -2901,64 +2922,64 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:58" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="44" t="s">
         <v>23</v>
       </c>
       <c r="X11" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>1</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="15">
         <v>7</v>
       </c>
-      <c r="W12" s="17">
+      <c r="W12" s="15">
         <v>0</v>
       </c>
-      <c r="AG12" s="17">
+      <c r="AG12" s="15">
         <v>50</v>
       </c>
-      <c r="AL12" s="17">
+      <c r="AL12" s="15">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:61" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="47" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="X13" s="17">
+      <c r="X13" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2974,47 +2995,50 @@
         <v>0</v>
       </c>
       <c r="R14" s="13">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X14" s="13">
-        <v>50</v>
-      </c>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="30"/>
-      <c r="AR14" s="30"/>
-      <c r="AS14" s="30"/>
-      <c r="AT14" s="30"/>
-      <c r="AU14" s="30"/>
-      <c r="AV14" s="30"/>
-      <c r="AW14" s="30"/>
-      <c r="AX14" s="30"/>
-      <c r="AY14" s="30"/>
-      <c r="BE14" s="13">
-        <v>97</v>
-      </c>
-      <c r="BF14" s="13">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="27"/>
+      <c r="AV14" s="27"/>
+      <c r="AW14" s="27"/>
+      <c r="AX14" s="27"/>
+      <c r="AY14" s="27"/>
+      <c r="BB14" s="13">
+        <v>91.1</v>
+      </c>
+      <c r="BC14" s="13">
+        <v>96</v>
+      </c>
+      <c r="BI14" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="44" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="13">
@@ -3033,8 +3057,8 @@
         <v>52431253</v>
       </c>
     </row>
-    <row r="16" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:61" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -3050,41 +3074,50 @@
         <v>0</v>
       </c>
       <c r="R16" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X16" s="13">
-        <v>12</v>
-      </c>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="30"/>
-      <c r="AQ16" s="30"/>
-      <c r="AR16" s="30"/>
-      <c r="AS16" s="30"/>
-      <c r="AT16" s="30"/>
-      <c r="AU16" s="30"/>
-      <c r="AV16" s="30"/>
-      <c r="AW16" s="30"/>
-      <c r="AX16" s="30"/>
-      <c r="AY16" s="30"/>
-    </row>
-    <row r="17" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="BB16" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="BC16" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="BI16" s="13">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="44" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="13">
@@ -3094,151 +3127,145 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:58" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="23">
         <v>1</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="24">
         <v>0</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="24">
         <v>15</v>
       </c>
-      <c r="X18" s="27">
+      <c r="X18" s="24">
         <v>30</v>
       </c>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="27">
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
+      <c r="AT18" s="28"/>
+      <c r="AU18" s="28"/>
+      <c r="AV18" s="28"/>
+      <c r="AW18" s="28"/>
+      <c r="AX18" s="28"/>
+      <c r="AY18" s="28"/>
+      <c r="AZ18" s="24">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:58" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="47" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="24">
         <v>0</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="24">
         <v>492549</v>
       </c>
-      <c r="X19" s="27">
+      <c r="X19" s="24">
         <v>256491</v>
       </c>
-      <c r="AM19" s="27">
+      <c r="AM19" s="24">
         <v>9382947</v>
       </c>
-      <c r="AU19" s="27">
+      <c r="AU19" s="24">
         <v>52431253</v>
       </c>
     </row>
-    <row r="20" spans="1:58" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="23">
         <v>1</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="24">
         <v>0</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="24">
         <v>55</v>
       </c>
-      <c r="X20" s="27">
+      <c r="X20" s="24">
         <v>50</v>
       </c>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="27">
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="28"/>
+      <c r="AV20" s="28"/>
+      <c r="AW20" s="28"/>
+      <c r="AX20" s="28"/>
+      <c r="AY20" s="28"/>
+      <c r="AZ20" s="24">
         <v>20</v>
       </c>
-      <c r="BE20" s="27">
+    </row>
+    <row r="21" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="24">
+        <v>0</v>
+      </c>
+      <c r="X21" s="24">
         <v>1</v>
       </c>
-      <c r="BF20" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:58" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="27">
-        <v>0</v>
-      </c>
-      <c r="X21" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    </row>
+    <row r="22" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -3259,39 +3286,39 @@
       <c r="X22" s="9">
         <v>15</v>
       </c>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="29"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="29"/>
-      <c r="AT22" s="29"/>
-      <c r="AU22" s="29"/>
-      <c r="AV22" s="29"/>
-      <c r="AW22" s="29"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="29"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
       <c r="AZ22" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="44" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="9">
@@ -3310,8 +3337,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -3332,39 +3359,39 @@
       <c r="X24" s="9">
         <v>62</v>
       </c>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="29"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="29"/>
-      <c r="AS24" s="29"/>
-      <c r="AT24" s="29"/>
-      <c r="AU24" s="29"/>
-      <c r="AV24" s="29"/>
-      <c r="AW24" s="29"/>
-      <c r="AX24" s="29"/>
-      <c r="AY24" s="29"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="26"/>
       <c r="AZ24" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="44" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="9">
@@ -3374,73 +3401,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:58" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="40">
         <v>1</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="41">
         <f>1/26</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="45"/>
-      <c r="AX26" s="45"/>
-      <c r="AY26" s="45"/>
-      <c r="AZ26" s="44">
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="42"/>
+      <c r="AN26" s="42"/>
+      <c r="AO26" s="42"/>
+      <c r="AP26" s="42"/>
+      <c r="AQ26" s="42"/>
+      <c r="AR26" s="42"/>
+      <c r="AS26" s="42"/>
+      <c r="AT26" s="42"/>
+      <c r="AU26" s="42"/>
+      <c r="AV26" s="42"/>
+      <c r="AW26" s="42"/>
+      <c r="AX26" s="42"/>
+      <c r="AY26" s="42"/>
+      <c r="AZ26" s="41">
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:58" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+    <row r="27" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="41">
         <v>0</v>
       </c>
-      <c r="R27" s="44">
+      <c r="R27" s="41">
         <v>532947</v>
       </c>
-      <c r="X27" s="44">
+      <c r="X27" s="41">
         <v>9283747</v>
       </c>
-      <c r="AZ27" s="44">
+      <c r="AZ27" s="41">
         <v>739284639</v>
       </c>
     </row>
-    <row r="28" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -3449,23 +3476,23 @@
       <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AB28" s="46"/>
-      <c r="AL28" s="46"/>
-      <c r="AR28" s="46"/>
-      <c r="AS28" s="46"/>
-      <c r="AT28" s="46"/>
-      <c r="AU28" s="46"/>
-      <c r="AV28" s="46"/>
-      <c r="AW28" s="46"/>
-      <c r="AX28" s="46"/>
-      <c r="AY28" s="46"/>
-      <c r="AZ28" s="46"/>
-    </row>
-    <row r="29" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="AB28" s="43"/>
+      <c r="AL28" s="43"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="43"/>
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="43"/>
+      <c r="AW28" s="43"/>
+      <c r="AX28" s="43"/>
+      <c r="AY28" s="43"/>
+      <c r="AZ28" s="43"/>
+    </row>
+    <row r="29" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3477,52 +3504,52 @@
       <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="46"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="46"/>
-      <c r="AL29" s="46"/>
-      <c r="AM29" s="46"/>
-      <c r="AN29" s="46"/>
-      <c r="AO29" s="46"/>
-      <c r="AP29" s="46"/>
-      <c r="AQ29" s="46"/>
-      <c r="AR29" s="46"/>
-      <c r="AS29" s="46"/>
-      <c r="AT29" s="46"/>
-      <c r="AU29" s="46"/>
-      <c r="AV29" s="46"/>
-      <c r="AW29" s="46"/>
-      <c r="AX29" s="46"/>
-      <c r="AY29" s="46"/>
-      <c r="AZ29" s="46"/>
-    </row>
-    <row r="30" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="43"/>
+      <c r="AS29" s="43"/>
+      <c r="AT29" s="43"/>
+      <c r="AU29" s="43"/>
+      <c r="AV29" s="43"/>
+      <c r="AW29" s="43"/>
+      <c r="AX29" s="43"/>
+      <c r="AY29" s="43"/>
+      <c r="AZ29" s="43"/>
+    </row>
+    <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3535,28 +3562,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="47" t="str">
+      <c r="D31" s="44" t="str">
         <f>D30</f>
         <v>yes</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="343" yWindow="238" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:BC26 E16:BC16 E14:BC14 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E6:BC6 E4:BC4 E2:BC2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:BC26 E14:BC14 E2:BC2 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E6:BC6 E4:BC4 E16:BC16">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:BC27 E25:BC25 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E15:BC15 E13:BC13 E11:BC11 E9:BC9 E7:BC7 E5:BC5 E3:BC3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:BC27 E25:BC25 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E3:BC3 E13:BC13 E11:BC11 E9:BC9 E7:BC7 E5:BC5 E15:BC15">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>

--- a/autumn/xls/programs_philippines.xlsx
+++ b/autumn/xls/programs_philippines.xlsx
@@ -11,12 +11,15 @@
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -241,6 +244,12 @@
   </si>
   <si>
     <t>scenario_8</t>
+  </si>
+  <si>
+    <t>program_timeperiod_await_treatment_smearneg</t>
+  </si>
+  <si>
+    <t>program_timeperiod_await_treatment_extrapul</t>
   </si>
 </sst>
 </file>
@@ -1929,6 +1938,23 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="country_constants"/>
+      <sheetName val="time_variants"/>
+      <sheetName val="dropdown_lists"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2402,18 +2428,18 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BI31"/>
+  <dimension ref="A1:BI33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI17" sqref="BI17"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" style="1" customWidth="1"/>
@@ -3444,113 +3470,113 @@
     </row>
     <row r="27" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="40">
+        <v>1</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="41">
+        <f>1/26</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="42"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
+      <c r="AR27" s="42"/>
+      <c r="AS27" s="42"/>
+      <c r="AT27" s="42"/>
+      <c r="AU27" s="42"/>
+      <c r="AV27" s="42"/>
+      <c r="AW27" s="42"/>
+      <c r="AX27" s="42"/>
+      <c r="AY27" s="42"/>
+      <c r="AZ27" s="41">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="40">
+        <v>1</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="41">
+        <f>1/26</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="42"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="42"/>
+      <c r="AU28" s="42"/>
+      <c r="AV28" s="42"/>
+      <c r="AW28" s="42"/>
+      <c r="AX28" s="42"/>
+      <c r="AY28" s="42"/>
+      <c r="AZ28" s="41">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B29" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="44" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I29" s="41">
         <v>0</v>
       </c>
-      <c r="R27" s="41">
+      <c r="R29" s="41">
         <v>532947</v>
       </c>
-      <c r="X27" s="41">
+      <c r="X29" s="41">
         <v>9283747</v>
       </c>
-      <c r="AZ27" s="41">
+      <c r="AZ29" s="41">
         <v>739284639</v>
       </c>
-    </row>
-    <row r="28" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB28" s="43"/>
-      <c r="AL28" s="43"/>
-      <c r="AR28" s="43"/>
-      <c r="AS28" s="43"/>
-      <c r="AT28" s="43"/>
-      <c r="AU28" s="43"/>
-      <c r="AV28" s="43"/>
-      <c r="AW28" s="43"/>
-      <c r="AX28" s="43"/>
-      <c r="AY28" s="43"/>
-      <c r="AZ28" s="43"/>
-    </row>
-    <row r="29" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="43"/>
-      <c r="AG29" s="43"/>
-      <c r="AH29" s="43"/>
-      <c r="AI29" s="43"/>
-      <c r="AJ29" s="43"/>
-      <c r="AK29" s="43"/>
-      <c r="AL29" s="43"/>
-      <c r="AM29" s="43"/>
-      <c r="AN29" s="43"/>
-      <c r="AO29" s="43"/>
-      <c r="AP29" s="43"/>
-      <c r="AQ29" s="43"/>
-      <c r="AR29" s="43"/>
-      <c r="AS29" s="43"/>
-      <c r="AT29" s="43"/>
-      <c r="AU29" s="43"/>
-      <c r="AV29" s="43"/>
-      <c r="AW29" s="43"/>
-      <c r="AX29" s="43"/>
-      <c r="AY29" s="43"/>
-      <c r="AZ29" s="43"/>
     </row>
     <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
@@ -3558,36 +3584,118 @@
       <c r="C30" s="6">
         <v>1</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="D30" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AR30" s="43"/>
+      <c r="AS30" s="43"/>
+      <c r="AT30" s="43"/>
+      <c r="AU30" s="43"/>
+      <c r="AV30" s="43"/>
+      <c r="AW30" s="43"/>
+      <c r="AX30" s="43"/>
+      <c r="AY30" s="43"/>
+      <c r="AZ30" s="43"/>
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="44" t="str">
-        <f>D30</f>
+      <c r="D31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="43"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="43"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="43"/>
+      <c r="AT31" s="43"/>
+      <c r="AU31" s="43"/>
+      <c r="AV31" s="43"/>
+      <c r="AW31" s="43"/>
+      <c r="AX31" s="43"/>
+      <c r="AY31" s="43"/>
+      <c r="AZ31" s="43"/>
+    </row>
+    <row r="32" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="44" t="str">
+        <f>D32</f>
         <v>yes</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="343" yWindow="238" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:BC26 E14:BC14 E2:BC2 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E6:BC6 E4:BC4 E16:BC16">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:BC14 E2:BC2 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E6:BC6 E4:BC4 E16:BC16 E26:BC28">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:BC27 E25:BC25 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E3:BC3 E13:BC13 E11:BC11 E9:BC9 E7:BC7 E5:BC5 E15:BC15">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:BC29 E15:BC15 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E3:BC3 E13:BC13 E11:BC11 E9:BC9 E7:BC7 E5:BC5 E25:BC25">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C28 C29:C1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3597,36 +3705,48 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B27</xm:sqref>
+          <xm:sqref>B2:B26 B29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D27 D32:D1048576 D29</xm:sqref>
+          <xm:sqref>D31 D34:D1048576 D2:D26 D29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cannot be time-variant" prompt="Will work on this later, but currently this must be fixed.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D28</xm:sqref>
+          <xm:sqref>D30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Don't enter data here">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D31</xm:sqref>
+          <xm:sqref>D33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected. WARNING: No should be selected if no organ stratification selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D30</xm:sqref>
+          <xm:sqref>D32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]dropdown_lists!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B27:B28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
+          <x14:formula1>
+            <xm:f>[1]dropdown_lists!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D27:D28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/programs_philippines.xlsx
+++ b/autumn/xls/programs_philippines.xlsx
@@ -150,9 +150,6 @@
     <t>Rate at which patients change from the low quality to the high quality health system</t>
   </si>
   <si>
-    <t>program_timeperiod_await_treatment</t>
-  </si>
-  <si>
     <t>program_cost_await_treatment</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>program_timeperiod_await_treatment_extrapul</t>
+  </si>
+  <si>
+    <t>program_timeperiod_await_treatment_smearpos</t>
   </si>
 </sst>
 </file>
@@ -2309,24 +2309,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="34">
         <v>1945</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="34">
         <v>1955</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2353,68 +2353,68 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="35">
         <v>0.3</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="48">
         <v>1850</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="48">
         <v>2016</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="48">
         <v>2020</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="46">
         <v>10000000</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="46">
         <v>3</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2434,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,10 +2477,10 @@
         <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="5">
         <v>1920</v>
@@ -2630,28 +2630,28 @@
         <v>2015</v>
       </c>
       <c r="BB1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BC1" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="BD1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BE1" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="BF1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3429,7 +3429,7 @@
     </row>
     <row r="26" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>13</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="27" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>13</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="28" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>13</v>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="29" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="44" t="s">
         <v>23</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="32" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>13</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="44" t="s">
         <v>13</v>

--- a/autumn/xls/programs_philippines.xlsx
+++ b/autumn/xls/programs_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="375" windowWidth="20370" windowHeight="7470" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="435" windowWidth="20370" windowHeight="7410" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="country_constants" sheetId="1" r:id="rId1"/>
@@ -1947,8 +1947,8 @@
       <sheetName val="dropdown_lists"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
@@ -2434,7 +2434,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/programs_philippines.xlsx
+++ b/autumn/xls/programs_philippines.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
   <si>
     <t>program_rate_restart_presenting</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>program_timeperiod_await_treatment_smearpos</t>
+  </si>
+  <si>
+    <t>program_prop_xpert</t>
   </si>
 </sst>
 </file>
@@ -1947,8 +1950,8 @@
       <sheetName val="dropdown_lists"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
@@ -2428,13 +2431,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BI33"/>
+  <dimension ref="A1:BI34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3552,56 +3555,68 @@
     </row>
     <row r="29" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="40">
+        <v>1</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="42"/>
+      <c r="AM29" s="42"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="42"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29" s="42"/>
+      <c r="AS29" s="42"/>
+      <c r="AT29" s="42"/>
+      <c r="AU29" s="42"/>
+      <c r="AV29" s="42"/>
+      <c r="AW29" s="42"/>
+      <c r="AX29" s="42"/>
+      <c r="AY29" s="42"/>
+      <c r="AZ29" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B30" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="44" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I30" s="41">
         <v>0</v>
       </c>
-      <c r="R29" s="41">
+      <c r="R30" s="41">
         <v>532947</v>
       </c>
-      <c r="X29" s="41">
+      <c r="X30" s="41">
         <v>9283747</v>
       </c>
-      <c r="AZ29" s="41">
+      <c r="AZ30" s="41">
         <v>739284639</v>
       </c>
-    </row>
-    <row r="30" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB30" s="43"/>
-      <c r="AL30" s="43"/>
-      <c r="AR30" s="43"/>
-      <c r="AS30" s="43"/>
-      <c r="AT30" s="43"/>
-      <c r="AU30" s="43"/>
-      <c r="AV30" s="43"/>
-      <c r="AW30" s="43"/>
-      <c r="AX30" s="43"/>
-      <c r="AY30" s="43"/>
-      <c r="AZ30" s="43"/>
     </row>
     <row r="31" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -3609,43 +3624,11 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="43"/>
+      <c r="D31" s="44" t="s">
+        <v>14</v>
+      </c>
       <c r="AB31" s="43"/>
-      <c r="AC31" s="43"/>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="43"/>
-      <c r="AG31" s="43"/>
-      <c r="AH31" s="43"/>
-      <c r="AI31" s="43"/>
-      <c r="AJ31" s="43"/>
-      <c r="AK31" s="43"/>
       <c r="AL31" s="43"/>
-      <c r="AM31" s="43"/>
-      <c r="AN31" s="43"/>
-      <c r="AO31" s="43"/>
-      <c r="AP31" s="43"/>
-      <c r="AQ31" s="43"/>
       <c r="AR31" s="43"/>
       <c r="AS31" s="43"/>
       <c r="AT31" s="43"/>
@@ -3658,7 +3641,7 @@
     </row>
     <row r="32" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>13</v>
@@ -3669,33 +3652,90 @@
       <c r="D32" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="43"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="43"/>
+      <c r="AO32" s="43"/>
+      <c r="AP32" s="43"/>
+      <c r="AQ32" s="43"/>
+      <c r="AR32" s="43"/>
+      <c r="AS32" s="43"/>
+      <c r="AT32" s="43"/>
+      <c r="AU32" s="43"/>
+      <c r="AV32" s="43"/>
+      <c r="AW32" s="43"/>
+      <c r="AX32" s="43"/>
+      <c r="AY32" s="43"/>
+      <c r="AZ32" s="43"/>
     </row>
     <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
       </c>
-      <c r="D33" s="44" t="str">
-        <f>D32</f>
+      <c r="D33" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="44" t="str">
+        <f>D33</f>
         <v>yes</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="343" yWindow="238" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:BC14 E2:BC2 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E6:BC6 E4:BC4 E16:BC16 E26:BC28">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:BC14 E2:BC2 E12:BC12 E10:BC10 E24:BC24 E22:BC22 E20:BC20 E18:BC18 E8:BC8 E6:BC6 E4:BC4 E16:BC16 E26:BC28 E29:BA29">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:BC29 E15:BC15 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E3:BC3 E13:BC13 E11:BC11 E9:BC9 E7:BC7 E5:BC5 E25:BC25">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30:BC30 E15:BC15 E23:BC23 E21:BC21 E19:BC19 E17:BC17 E3:BC3 E13:BC13 E11:BC11 E9:BC9 E7:BC7 E5:BC5 E25:BC25 BB29:BC29">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C28 C29:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3705,36 +3745,36 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B26 B29</xm:sqref>
+          <xm:sqref>B2:B26 B30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D31 D34:D1048576 D2:D26 D29</xm:sqref>
+          <xm:sqref>D32 D35:D1048576 D2:D26 D30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cannot be time-variant" prompt="Will work on this later, but currently this must be fixed.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D30</xm:sqref>
+          <xm:sqref>D31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Don't enter data here">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D33</xm:sqref>
+          <xm:sqref>D34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected. WARNING: No should be selected if no organ stratification selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3747,6 +3787,18 @@
             <xm:f>[1]dropdown_lists!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D27:D28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]dropdown_lists!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
+          <x14:formula1>
+            <xm:f>[1]dropdown_lists!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
